--- a/edmc_tools/resources/idmp_master_v0.1.0/AboutIDMPDevSHACLed_v0.1.0.xlsx
+++ b/edmc_tools/resources/idmp_master_v0.1.0/AboutIDMPDevSHACLed_v0.1.0.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://chem.nlm.nih.gov/chemidplus/rn/88150-42-9</t>
+          <t>https://chem.nlm.nih.gov/chemidplus/rn/14636-12-5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://chem.nlm.nih.gov/chemidplus/rn/88150-42-9</t>
+          <t>https://chem.nlm.nih.gov/chemidplus/rn/14636-12-5</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://chem.nlm.nih.gov/chemidplus/rn/88150-42-9&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn&gt;</t>
+          <t>Less than 1 values on &lt;https://chem.nlm.nih.gov/chemidplus/rn/14636-12-5&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn&gt;</t>
         </is>
       </c>
     </row>
@@ -522,7 +522,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://gsrs.ncats.nih.gov/api/v1/substances/c9925b82-5d36-4e00-b54d-d3b7189625de</t>
+          <t>https://gsrs.ncats.nih.gov/api/v1/substances/beaecfe8-eccb-44ab-b842-ae2cc60ff3e4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://gsrs.ncats.nih.gov/api/v1/substances/c9925b82-5d36-4e00-b54d-d3b7189625de&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/hasNumberOfMoieties&gt;</t>
+          <t>Less than 1 values on &lt;https://gsrs.ncats.nih.gov/api/v1/substances/beaecfe8-eccb-44ab-b842-ae2cc60ff3e4&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/hasNumberOfMoieties&gt;</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://gsrs.ncats.nih.gov/api/v1/substances/e67c9314-1e17-4876-a745-47f27c2169e6</t>
+          <t>https://gsrs.ncats.nih.gov/api/v1/substances/beaecfe8-eccb-44ab-b842-ae2cc60ff3e4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://gsrs.ncats.nih.gov/api/v1/substances/e67c9314-1e17-4876-a745-47f27c2169e6&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/isRelatedSubstanceTo&gt;</t>
+          <t>Less than 1 values on &lt;https://gsrs.ncats.nih.gov/api/v1/substances/beaecfe8-eccb-44ab-b842-ae2cc60ff3e4&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/isRelatedSubstanceTo&gt;</t>
         </is>
       </c>
     </row>
@@ -576,12 +576,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://gsrs.ncats.nih.gov/api/v1/substances/e67c9314-1e17-4876-a745-47f27c2169e6</t>
+          <t>https://gsrs.ncats.nih.gov/api/v1/substances/beaecfe8-eccb-44ab-b842-ae2cc60ff3e4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/hasStructure</t>
+          <t>https://www.omg.org/spec/Commons/Collections/hasConstituent</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://gsrs.ncats.nih.gov/api/v1/substances/e67c9314-1e17-4876-a745-47f27c2169e6&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/hasStructure&gt;</t>
+          <t>Less than 1 values on &lt;https://gsrs.ncats.nih.gov/api/v1/substances/beaecfe8-eccb-44ab-b842-ae2cc60ff3e4&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/hasConstituent&gt;</t>
         </is>
       </c>
     </row>
@@ -603,12 +603,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://id.loc.gov/vocabulary/iso639-1/qu</t>
+          <t>https://gsrs.ncats.nih.gov/api/v1/substances/e67c9314-1e17-4876-a745-47f27c2169e6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/hasMethod</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/isRelatedSubstanceTo</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://id.loc.gov/vocabulary/iso639-1/qu&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/hasMethod&gt;</t>
+          <t>Less than 1 values on &lt;https://gsrs.ncats.nih.gov/api/v1/substances/e67c9314-1e17-4876-a745-47f27c2169e6&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/isRelatedSubstanceTo&gt;</t>
         </is>
       </c>
     </row>
@@ -630,22 +630,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://id.loc.gov/vocabulary/iso639-1/qu</t>
+          <t>https://gsrs.ncats.nih.gov/api/v1/substances/e67c9314-1e17-4876-a745-47f27c2169e6</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasGermanName</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/hasStructure</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#NodeKindConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Value is not of Node Kind rdfs:Literal</t>
+          <t>Less than 1 values on &lt;https://gsrs.ncats.nih.gov/api/v1/substances/e67c9314-1e17-4876-a745-47f27c2169e6&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/hasStructure&gt;</t>
         </is>
       </c>
     </row>
@@ -657,22 +657,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://id.loc.gov/vocabulary/iso639-1/qu</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineAsReferenceSubstanceInNorvascPresentationStrength</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasIndigenousName</t>
+          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasArgument</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#NodeKindConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Value is not of Node Kind rdfs:Literal</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/Constant&gt;</t>
         </is>
       </c>
     </row>
@@ -684,22 +684,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://id.loc.gov/vocabulary/iso639-1/wa</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineAsReferenceSubstanceInNorvascPresentationStrength</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/hasMethod</t>
+          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasArgument</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://id.loc.gov/vocabulary/iso639-1/wa&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/hasMethod&gt;</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/Variable&gt;</t>
         </is>
       </c>
     </row>
@@ -711,22 +711,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://id.loc.gov/vocabulary/iso639-1/wa</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineBesylateMolecularWeight</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasGermanName</t>
+          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/expressesTheMagnitudeOf</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#NodeKindConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Value is not of Node Kind rdfs:Literal</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineBesylateMolecularWeight&gt;-&gt;&lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/expressesTheMagnitudeOf&gt;</t>
         </is>
       </c>
     </row>
@@ -738,22 +738,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://id.loc.gov/vocabulary/iso639-1/wa</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineEMC</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasIndigenousName</t>
+          <t>https://www.omg.org/spec/Commons/Collections/comprises</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#NodeKindConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Value is not of Node Kind rdfs:Literal</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineEMC&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/comprises&gt;</t>
         </is>
       </c>
     </row>
@@ -765,12 +765,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/Amlodipine</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineMesylateMonohydrate</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/hasConstituent</t>
+          <t>https://www.omg.org/spec/Commons/Collections/isIncludedIn</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/Amlodipine&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/hasConstituent&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineMesylateMonohydrate&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isIncludedIn&gt;</t>
         </is>
       </c>
     </row>
@@ -792,12 +792,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/Amlodipine</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineMesylateMonohydrate</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/isRelatedSubstanceTo</t>
+          <t>https://www.omg.org/spec/Commons/Collections/isIncludedIn</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/Amlodipine&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/isRelatedSubstanceTo&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineMesylateMonohydrate&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isIncludedIn&gt;</t>
         </is>
       </c>
     </row>
@@ -819,12 +819,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineBesylateMolecularStructure</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineMesylateMonohydrate</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/hasMethod</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/isRelatedSubstanceTo</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -834,7 +834,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineBesylateMolecularStructure&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/hasMethod&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineMesylateMonohydrate&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/isRelatedSubstanceTo&gt;</t>
         </is>
       </c>
     </row>
@@ -846,12 +846,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineEMC</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineMesylateMonohydrateAsActiveIngredientInAmlodipineEMC</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/comprises</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/isAllergenic</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineEMC&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/comprises&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineMesylateMonohydrateAsActiveIngredientInAmlodipineEMC&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/isAllergenic&gt;</t>
         </is>
       </c>
     </row>
@@ -873,12 +873,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineMesylateMonohydrate</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineMesylateMonohydrateMolecularStructure</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/isRelatedSubstanceTo</t>
+          <t>https://www.omg.org/spec/Commons/Collections/hasMethod</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineMesylateMonohydrate&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/isRelatedSubstanceTo&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineMesylateMonohydrateMolecularStructure&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/hasMethod&gt;</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineMesylateMonohydrate</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineOfficialName</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/isIncludedIn</t>
+          <t>https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineMesylateMonohydrate&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isIncludedIn&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineOfficialName&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn&gt;</t>
         </is>
       </c>
     </row>
@@ -927,12 +927,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineMesylateMonohydrate</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineOfficialName</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/isIncludedIn</t>
+          <t>https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -942,7 +942,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineMesylateMonohydrate&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isIncludedIn&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineOfficialName&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn&gt;</t>
         </is>
       </c>
     </row>
@@ -954,22 +954,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineMesylateMonohydrateAsActiveIngredientInAmlodipineEMC</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/EVMPD-SUB05467MIG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/isAllergenic</t>
+          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineMesylateMonohydrateAsActiveIngredientInAmlodipineEMC&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/isAllergenic&gt;</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
         </is>
       </c>
     </row>
@@ -981,22 +981,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineMesylateMonohydrateAsActiveIngredientInAmlodipineEMCPresentationStrength</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/EVMPD-SUB05467MIG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasArgument</t>
+          <t>https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/Variable&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/EVMPD-SUB05467MIG&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn&gt;</t>
         </is>
       </c>
     </row>
@@ -1008,22 +1008,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineMesylateMonohydrateAsActiveIngredientInAmlodipineEMCPresentationStrength</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/KentPharmaAsManufacturer</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasArgument</t>
+          <t>https://www.omg.org/spec/Commons/ContextualDesignators/hasApplicablePeriod</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/Constant&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/KentPharmaAsManufacturer&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ContextualDesignators/hasApplicablePeriod&gt;</t>
         </is>
       </c>
     </row>
@@ -1035,22 +1035,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineOfficialName</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/ClinicalTrialAuthorization-2010-022372-31</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
+          <t>https://www.omg.org/spec/Commons/PartiesAndSituations/holdsDuring</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/ClinicalTrialAuthorization-2010-022372-31&gt;-&gt;&lt;https://www.omg.org/spec/Commons/PartiesAndSituations/holdsDuring&gt;</t>
         </is>
       </c>
     </row>
@@ -1062,12 +1062,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineOfficialName</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/EudraClinicalTrialsNumber-2014-002112-16</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Classifiers/isClassifiedBy</t>
+          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/SubstanceNameDomain&gt;</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
         </is>
       </c>
     </row>
@@ -1089,22 +1089,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineOfficialName</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/EudraClinicalTrialsNumber-2014-002112-16</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Designators/isDescribedBy</t>
+          <t>https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/Documents/Reference&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/EudraClinicalTrialsNumber-2014-002112-16&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn&gt;</t>
         </is>
       </c>
     </row>
@@ -1116,12 +1116,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineOfficialName</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/GlaxoSmithKlineBiologicalsAsMarketingAuthorizationHolder</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn</t>
+          <t>https://www.omg.org/spec/Commons/ContextualDesignators/hasApplicablePeriod</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineOfficialName&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/GlaxoSmithKlineBiologicalsAsMarketingAuthorizationHolder&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ContextualDesignators/hasApplicablePeriod&gt;</t>
         </is>
       </c>
     </row>
@@ -1143,22 +1143,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineOfficialName</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/MarketingAuthorizationNumber-EMEA-H-C-000550</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn</t>
+          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineOfficialName&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn&gt;</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
         </is>
       </c>
     </row>
@@ -1170,12 +1170,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineOfficialName</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/MarketingAuthorizationNumber-EMEA-H-C-000550</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/hasChangeDate</t>
+          <t>https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineOfficialName&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/hasChangeDate&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/MarketingAuthorizationNumber-EMEA-H-C-000550&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn&gt;</t>
         </is>
       </c>
     </row>
@@ -1197,22 +1197,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/EVMPD-SUB05467MIG</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/NorvascMarketingAuthorizationInGermany</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
+          <t>https://www.omg.org/spec/Commons/PartiesAndSituations/holdsDuring</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/NorvascMarketingAuthorizationInGermany&gt;-&gt;&lt;https://www.omg.org/spec/Commons/PartiesAndSituations/holdsDuring&gt;</t>
         </is>
       </c>
     </row>
@@ -1224,12 +1224,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/EVMPD-SUB05467MIG</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/Terlipressin</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn</t>
+          <t>https://www.omg.org/spec/Commons/Collections/isIncludedIn</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/EVMPD-SUB05467MIG&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/Terlipressin&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isIncludedIn&gt;</t>
         </is>
       </c>
     </row>
@@ -1251,12 +1251,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/PfizerLaboratoriesAsManufacturer</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/Terlipressin</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/ContextualDesignators/hasApplicablePeriod</t>
+          <t>https://www.omg.org/spec/Commons/Collections/isIncludedIn</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/PfizerLaboratoriesAsManufacturer&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ContextualDesignators/hasApplicablePeriod&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/Terlipressin&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isIncludedIn&gt;</t>
         </is>
       </c>
     </row>
@@ -1278,12 +1278,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/ClinicalTrialAuthorization-2010-022372-31</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAcetate</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/PartiesAndSituations/holdsDuring</t>
+          <t>https://www.omg.org/spec/Commons/Collections/isIncludedIn</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/ClinicalTrialAuthorization-2010-022372-31&gt;-&gt;&lt;https://www.omg.org/spec/Commons/PartiesAndSituations/holdsDuring&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAcetate&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isIncludedIn&gt;</t>
         </is>
       </c>
     </row>
@@ -1305,12 +1305,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/DynavaxTechnologiesCorporationAsMarketingAuthorizationHolder</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAcetate</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/ContextualDesignators/hasApplicablePeriod</t>
+          <t>https://www.omg.org/spec/Commons/Collections/isIncludedIn</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/DynavaxTechnologiesCorporationAsMarketingAuthorizationHolder&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ContextualDesignators/hasApplicablePeriod&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAcetate&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isIncludedIn&gt;</t>
         </is>
       </c>
     </row>
@@ -1332,12 +1332,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/EudraClinicalTrialsNumber-2014-002112-16</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAcetateConcentrationStrengthInTerlipressinAcetate1MgPerAmpouleSolutionForInjection</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
+          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasArgument</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/Constant&gt;</t>
         </is>
       </c>
     </row>
@@ -1359,22 +1359,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/EudraClinicalTrialsNumber-2014-002112-16</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAcetateConcentrationStrengthInTerlipressinAcetate1MgPerAmpouleSolutionForInjection</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn</t>
+          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasArgument</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/EudraClinicalTrialsNumber-2014-002112-16&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn&gt;</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/Variable&gt;</t>
         </is>
       </c>
     </row>
@@ -1386,22 +1386,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/FendrixMarketingAuthorizationInEuropeanUnion</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAcetateConcentrationStrengthInTerlipressinAcetate1MgPerAmpouleSolutionForInjection</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/PartiesAndSituations/holdsDuring</t>
+          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasArgument</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/FendrixMarketingAuthorizationInEuropeanUnion&gt;-&gt;&lt;https://www.omg.org/spec/Commons/PartiesAndSituations/holdsDuring&gt;</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/Constant&gt;</t>
         </is>
       </c>
     </row>
@@ -1413,12 +1413,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/MarketingAuthorizationNumber-EMEA-H-C-000550</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAcetateConcentrationStrengthInTerlipressinAcetate1MgPerAmpouleSolutionForInjection</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
+          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasArgument</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/Variable&gt;</t>
         </is>
       </c>
     </row>
@@ -1440,22 +1440,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/MarketingAuthorizationNumber-EMEA-H-C-000550</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAcetateSUNConstituency</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn</t>
+          <t>https://www.omg.org/spec/Commons/Designators/defines</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/MarketingAuthorizationNumber-EMEA-H-C-000550&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn&gt;</t>
+          <t>Value does not have class &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/MedicinalProduct&gt;</t>
         </is>
       </c>
     </row>
@@ -1467,12 +1467,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/Terlipressin</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAcetateSUNConstituency</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/isIncludedIn</t>
+          <t>https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/Terlipressin&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isIncludedIn&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAcetateSUNConstituency&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn&gt;</t>
         </is>
       </c>
     </row>
@@ -1494,12 +1494,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/Terlipressin</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAcetateStrengthAsManufacturedInTerlipressinAcetate1MgPerAmpouleSolutionForInjection</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/isIncludedIn</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/isAllergenic</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/Terlipressin&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isIncludedIn&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAcetateStrengthAsManufacturedInTerlipressinAcetate1MgPerAmpouleSolutionForInjection&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/isAllergenic&gt;</t>
         </is>
       </c>
     </row>
@@ -1521,12 +1521,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAcetate</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAcetateStrengthAsManufacturedInTerlipressinAcetate1MgPerAmpouleSolutionForInjection</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/isIncludedIn</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/hasReferenceSubstance</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAcetate&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isIncludedIn&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAcetateStrengthAsManufacturedInTerlipressinAcetate1MgPerAmpouleSolutionForInjection&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/hasReferenceSubstance&gt;</t>
         </is>
       </c>
     </row>
@@ -1548,12 +1548,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAcetate</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAcetateStrengthAsManufacturedInTerlipressinAcetate1MgPerAmpouleSolutionForInjection</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/isIncludedIn</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/hasReferenceStrength</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAcetate&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isIncludedIn&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAcetateStrengthAsManufacturedInTerlipressinAcetate1MgPerAmpouleSolutionForInjection&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/hasReferenceStrength&gt;</t>
         </is>
       </c>
     </row>
@@ -1575,22 +1575,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAcetateConcentrationStrengthInTerlipressinAcetate1MgPerAmpouleSolutionForInjection</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAsReferenceStrengthInTerlipressinAcetate1MgPerAmpouleSolutionForInjection</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasArgument</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/isAllergenic</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/Variable&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAsReferenceStrengthInTerlipressinAcetate1MgPerAmpouleSolutionForInjection&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/isAllergenic&gt;</t>
         </is>
       </c>
     </row>
@@ -1602,22 +1602,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAcetateConcentrationStrengthInTerlipressinAcetate1MgPerAmpouleSolutionForInjection</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAsReferenceStrengthInTerlipressinAcetate1MgPerAmpouleSolutionForInjection</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasArgument</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/hasReferenceSubstance</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/Constant&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAsReferenceStrengthInTerlipressinAcetate1MgPerAmpouleSolutionForInjection&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/hasReferenceSubstance&gt;</t>
         </is>
       </c>
     </row>
@@ -1629,22 +1629,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAcetateMolecularWeight</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinCommonName</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/expressesTheMagnitudeOf</t>
+          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAcetateMolecularWeight&gt;-&gt;&lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/expressesTheMagnitudeOf&gt;</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
         </is>
       </c>
     </row>
@@ -1656,12 +1656,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAcetateSUNConstituency</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinCommonName</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Designators/defines</t>
+          <t>https://www.omg.org/spec/Commons/Classifiers/isClassifiedBy</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/MedicinalProduct&gt;</t>
+          <t>Value does not have class &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/SubstanceNameDomain&gt;</t>
         </is>
       </c>
     </row>
@@ -1683,22 +1683,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAcetateSUNConstituency</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinCommonName</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn</t>
+          <t>https://www.omg.org/spec/Commons/Designators/isDescribedBy</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAcetateSUNConstituency&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn&gt;</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/Documents/Reference&gt;</t>
         </is>
       </c>
     </row>
@@ -1710,22 +1710,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAcetateStrengthAsManufacturedInTerlipressinAcetate1MgPerAmpouleSolutionForInjection</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinOfficialName</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/hasReferenceSubstance</t>
+          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAcetateStrengthAsManufacturedInTerlipressinAcetate1MgPerAmpouleSolutionForInjection&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/hasReferenceSubstance&gt;</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
         </is>
       </c>
     </row>
@@ -1737,22 +1737,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAcetateStrengthAsManufacturedInTerlipressinAcetate1MgPerAmpouleSolutionForInjection</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinOfficialName</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/isAllergenic</t>
+          <t>https://www.omg.org/spec/Commons/Classifiers/isClassifiedBy</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAcetateStrengthAsManufacturedInTerlipressinAcetate1MgPerAmpouleSolutionForInjection&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/isAllergenic&gt;</t>
+          <t>Value does not have class &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/SubstanceNameDomain&gt;</t>
         </is>
       </c>
     </row>
@@ -1764,22 +1764,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAcetateStrengthAsManufacturedInTerlipressinAcetate1MgPerAmpouleSolutionForInjection</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinOfficialName</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/hasReferenceStrength</t>
+          <t>https://www.omg.org/spec/Commons/Designators/isDescribedBy</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAcetateStrengthAsManufacturedInTerlipressinAcetate1MgPerAmpouleSolutionForInjection&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/hasReferenceStrength&gt;</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/Documents/Reference&gt;</t>
         </is>
       </c>
     </row>
@@ -1791,22 +1791,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAsReferencePresentationStrengthInTerlipressinAcetate1MgPerMlSolutionForInjection</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinOfficialName</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasArgument</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/hasChangeDate</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/Variable&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinOfficialName&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/hasChangeDate&gt;</t>
         </is>
       </c>
     </row>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAsReferencePresentationStrengthInTerlipressinAcetate1MgPerMlSolutionForInjection</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinSUN1MgSolutionForInjectionConstituency</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasArgument</t>
+          <t>https://www.omg.org/spec/Commons/Designators/defines</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/Constant&gt;</t>
+          <t>Value does not have class &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/PharmaceuticalProduct&gt;</t>
         </is>
       </c>
     </row>
@@ -1845,22 +1845,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAsReferenceStrengthInTerlipressinAcetate1MgPerAmpouleSolutionForInjection</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/UNII-7Z5X49W53P</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/hasReferenceSubstance</t>
+          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAsReferenceStrengthInTerlipressinAcetate1MgPerAmpouleSolutionForInjection&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/hasReferenceSubstance&gt;</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
         </is>
       </c>
     </row>
@@ -1872,12 +1872,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAsReferenceStrengthInTerlipressinAcetate1MgPerAmpouleSolutionForInjection</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/UNII-7Z5X49W53P</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/isAllergenic</t>
+          <t>https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAsReferenceStrengthInTerlipressinAcetate1MgPerAmpouleSolutionForInjection&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/isAllergenic&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/UNII-7Z5X49W53P&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn&gt;</t>
         </is>
       </c>
     </row>
@@ -1899,22 +1899,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinOfficialName</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/AmountOfSubstance</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
+          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/specializes</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/AmountOfSubstance&gt;-&gt;&lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/specializes&gt;</t>
         </is>
       </c>
     </row>
@@ -1926,22 +1926,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinOfficialName</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/AmountOfSubstance</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Classifiers/isClassifiedBy</t>
+          <t>https://www.omg.org/spec/Commons/Classifiers/classifies</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/SubstanceNameDomain&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/AmountOfSubstance&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Classifiers/classifies&gt;</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinOfficialName</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/AmountOfSubstance</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Designators/isDescribedBy</t>
+          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasMeasurementUnit</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/Documents/Reference&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/AmountOfSubstance&gt;-&gt;&lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasMeasurementUnit&gt;</t>
         </is>
       </c>
     </row>
@@ -1980,22 +1980,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinSUN0.1MgPerMlSolutionForInjectionConstituency</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Dimension-L</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Designators/defines</t>
+          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasFactor</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/PharmaceuticalProduct&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Dimension-L&gt;-&gt;&lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasFactor&gt;</t>
         </is>
       </c>
     </row>
@@ -2007,22 +2007,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/UNII-4U092XZF0K</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Dimension-L</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
+          <t>https://www.omg.org/spec/Commons/Classifiers/classifies</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#NodeKindConstraintComponent</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
+          <t>Value is not of Node Kind rdfs:Literal</t>
         </is>
       </c>
     </row>
@@ -2034,22 +2034,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/UNII-4U092XZF0K</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Gram</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn</t>
+          <t>https://www.omg.org/spec/Commons/Designators/isDefinedIn</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/UNII-4U092XZF0K&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn&gt;</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/SystemOfUnits&gt;</t>
         </is>
       </c>
     </row>
@@ -2061,12 +2061,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/AmountOfSubstance</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Gram</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/specializes</t>
+          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasFactor</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/AmountOfSubstance&gt;-&gt;&lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/specializes&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Gram&gt;-&gt;&lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasFactor&gt;</t>
         </is>
       </c>
     </row>
@@ -2088,12 +2088,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/AmountOfSubstance</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Gram</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Classifiers/classifies</t>
+          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/specializes</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/AmountOfSubstance&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Classifiers/classifies&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Gram&gt;-&gt;&lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/specializes&gt;</t>
         </is>
       </c>
     </row>
@@ -2115,12 +2115,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/AmountOfSubstance</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Gram</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasMeasurementUnit</t>
+          <t>https://www.omg.org/spec/Commons/Designators/hasName</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/AmountOfSubstance&gt;-&gt;&lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasMeasurementUnit&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Gram&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Designators/hasName&gt;</t>
         </is>
       </c>
     </row>
@@ -2142,12 +2142,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Ampoule</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Kilo</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/specializes</t>
+          <t>https://www.omg.org/spec/Commons/Classifiers/characterizes</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Ampoule&gt;-&gt;&lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/specializes&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Kilo&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Classifiers/characterizes&gt;</t>
         </is>
       </c>
     </row>
@@ -2169,12 +2169,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Ampoule</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/MassConcentration</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Designators/isDefinedIn</t>
+          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/specializes</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Ampoule&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Designators/isDefinedIn&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/MassConcentration&gt;-&gt;&lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/specializes&gt;</t>
         </is>
       </c>
     </row>
@@ -2196,12 +2196,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Ampoule</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/MassConcentration</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Designators/hasName</t>
+          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasFactor</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Ampoule&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Designators/hasName&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/MassConcentration&gt;-&gt;&lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasFactor&gt;</t>
         </is>
       </c>
     </row>
@@ -2223,12 +2223,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Ampoule</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/MassConcentration</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasFactor</t>
+          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasMeasurementUnit</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Ampoule&gt;-&gt;&lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasFactor&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/MassConcentration&gt;-&gt;&lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasMeasurementUnit&gt;</t>
         </is>
       </c>
     </row>
@@ -2250,22 +2250,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Dimension-L</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/MassConcentration</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasFactor</t>
+          <t>https://www.omg.org/spec/Commons/Classifiers/classifies</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#NodeKindConstraintComponent</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Dimension-L&gt;-&gt;&lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasFactor&gt;</t>
+          <t>Value is not of Node Kind rdfs:Literal</t>
         </is>
       </c>
     </row>
@@ -2277,22 +2277,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Dimension-L</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Milliliter</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Classifiers/classifies</t>
+          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasFactor</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#NodeKindConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Value is not of Node Kind rdfs:Literal</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/UnitPowerFactor&gt;</t>
         </is>
       </c>
     </row>
@@ -2304,22 +2304,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Kilo</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Milliliter</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Classifiers/characterizes</t>
+          <t>https://www.omg.org/spec/Commons/Designators/isDefinedIn</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Kilo&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Classifiers/characterizes&gt;</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/SystemOfUnits&gt;</t>
         </is>
       </c>
     </row>
@@ -2331,22 +2331,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Kilogram</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Milliliter</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Designators/isDefinedIn</t>
+          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/specializes</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/SystemOfUnits&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Milliliter&gt;-&gt;&lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/specializes&gt;</t>
         </is>
       </c>
     </row>
@@ -2358,22 +2358,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Kilogram</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Milliliter</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasFactor</t>
+          <t>https://www.omg.org/spec/Commons/Designators/hasName</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/UnitPowerFactor&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Milliliter&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Designators/hasName&gt;</t>
         </is>
       </c>
     </row>
@@ -2385,12 +2385,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Kilogram</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Milliliter</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/specializes</t>
+          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasExpression</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Kilogram&gt;-&gt;&lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/specializes&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Milliliter&gt;-&gt;&lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasExpression&gt;</t>
         </is>
       </c>
     </row>
@@ -2412,22 +2412,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Kilogram</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/MolarMass</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Designators/hasName</t>
+          <t>https://www.omg.org/spec/Commons/Designators/isDefinedIn</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Kilogram&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Designators/hasName&gt;</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/SystemOfQuantities&gt;</t>
         </is>
       </c>
     </row>
@@ -2439,22 +2439,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Kilogram</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/OID-2.16.840.1.113883.6.8</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasExpression</t>
+          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Kilogram&gt;-&gt;&lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasExpression&gt;</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
         </is>
       </c>
     </row>
@@ -2466,12 +2466,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/MassConcentration</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/OID-2.16.840.1.113883.6.8</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/specializes</t>
+          <t>https://www.omg.org/spec/Commons/Collections/compliesWith</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/MassConcentration&gt;-&gt;&lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/specializes&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/OID-2.16.840.1.113883.6.8&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/compliesWith&gt;</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/MassConcentration</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Tablet</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/MassConcentration&gt;-&gt;&lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasFactor&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Tablet&gt;-&gt;&lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasFactor&gt;</t>
         </is>
       </c>
     </row>
@@ -2520,12 +2520,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/MassConcentration</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Tablet</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasMeasurementUnit</t>
+          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/specializes</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2535,7 +2535,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/MassConcentration&gt;-&gt;&lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasMeasurementUnit&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Tablet&gt;-&gt;&lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/specializes&gt;</t>
         </is>
       </c>
     </row>
@@ -2547,22 +2547,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/MassConcentration</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Tablet</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Classifiers/classifies</t>
+          <t>https://www.omg.org/spec/Commons/Designators/isDefinedIn</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#NodeKindConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Value is not of Node Kind rdfs:Literal</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Tablet&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Designators/isDefinedIn&gt;</t>
         </is>
       </c>
     </row>
@@ -2574,22 +2574,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/MolarMass</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Tablet</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Designators/isDefinedIn</t>
+          <t>https://www.omg.org/spec/Commons/Designators/hasName</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/SystemOfQuantities&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Tablet&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Designators/hasName&gt;</t>
         </is>
       </c>
     </row>
@@ -2601,22 +2601,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Mole</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/UnifiedCodeForUnitsOfMeasure</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Designators/isDefinedIn</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/hasVersion</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/SystemOfUnits&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/UnifiedCodeForUnitsOfMeasure&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/hasVersion&gt;</t>
         </is>
       </c>
     </row>
@@ -2628,12 +2628,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Mole</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/UnifiedCodeForUnitsOfMeasure</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/specializes</t>
+          <t>https://www.omg.org/spec/Commons/Collections/hasMethod</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Mole&gt;-&gt;&lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/specializes&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/UnifiedCodeForUnitsOfMeasure&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/hasMethod&gt;</t>
         </is>
       </c>
     </row>
@@ -2655,22 +2655,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Mole</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/UnifiedCodeForUnitsOfMeasureCodeSystemFullName</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Designators/hasName</t>
+          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Mole&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Designators/hasName&gt;</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
         </is>
       </c>
     </row>
@@ -2682,22 +2682,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Mole</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/EuropeanMedicinesAgencyAsMedicinesRegulatoryAgency</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasFactor</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/authorizesThrough</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Mole&gt;-&gt;&lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasFactor&gt;</t>
+          <t>Value does not have class &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/MarketingAuthorization&gt;</t>
         </is>
       </c>
     </row>
@@ -2709,12 +2709,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/OID-2.16.840.1.113883.6.8</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/EuropeanMedicinesAgencyAsMedicinesRegulatoryAgency</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/authorizesThrough</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
+          <t>Value does not have class &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/ManufacturingAuthorization&gt;</t>
         </is>
       </c>
     </row>
@@ -2736,12 +2736,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/OID-2.16.840.1.113883.6.8</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/EuropeanMedicinesAgencyAsMedicinesRegulatoryAgency</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/compliesWith</t>
+          <t>https://www.omg.org/spec/Commons/ProductsAndServices/provides</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/OID-2.16.840.1.113883.6.8&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/compliesWith&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/EuropeanMedicinesAgencyAsMedicinesRegulatoryAgency&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ProductsAndServices/provides&gt;</t>
         </is>
       </c>
     </row>
@@ -2763,12 +2763,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/UnifiedCodeForUnitsOfMeasure</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/EuropeanMedicinesAgencyAsMedicinesRegulatoryAgency</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/hasVersion</t>
+          <t>https://www.omg.org/spec/Commons/RegistrationAuthorities/isRegistrationAuthorityFor</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/UnifiedCodeForUnitsOfMeasure&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/hasVersion&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/EuropeanMedicinesAgencyAsMedicinesRegulatoryAgency&gt;-&gt;&lt;https://www.omg.org/spec/Commons/RegistrationAuthorities/isRegistrationAuthorityFor&gt;</t>
         </is>
       </c>
     </row>
@@ -2790,12 +2790,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/UnifiedCodeForUnitsOfMeasure</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/EuropeanMedicinesAgencyAsMedicinesRegulatoryAgency</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/hasMethod</t>
+          <t>https://www.omg.org/spec/Commons/RegistrationAuthorities/manages</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/UnifiedCodeForUnitsOfMeasure&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/hasMethod&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/EuropeanMedicinesAgencyAsMedicinesRegulatoryAgency&gt;-&gt;&lt;https://www.omg.org/spec/Commons/RegistrationAuthorities/manages&gt;</t>
         </is>
       </c>
     </row>
@@ -2817,22 +2817,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/UnifiedCodeForUnitsOfMeasureCodeSystemFullName</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/EuropeanMedicinesAgencyAsMedicinesRegulatoryAgency</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
+          <t>https://www.omg.org/spec/Commons/RegulatoryAgencies/regulates</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/EuropeanMedicinesAgencyAsMedicinesRegulatoryAgency&gt;-&gt;&lt;https://www.omg.org/spec/Commons/RegulatoryAgencies/regulates&gt;</t>
         </is>
       </c>
     </row>
@@ -2849,17 +2849,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/authorizesThrough</t>
+          <t>https://www.omg.org/spec/Commons/ProductsAndServices/issues</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/MarketingAuthorization&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/EuropeanMedicinesAgencyAsMedicinesRegulatoryAgency&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ProductsAndServices/issues&gt;</t>
         </is>
       </c>
     </row>
@@ -2876,17 +2876,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/authorizesThrough</t>
+          <t>https://www.omg.org/spec/Commons/ProductsAndServices/provides</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/ManufacturingAuthorization&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/EuropeanMedicinesAgencyAsMedicinesRegulatoryAgency&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ProductsAndServices/provides&gt;</t>
         </is>
       </c>
     </row>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/RegistrationAuthorities/manages</t>
+          <t>https://www.omg.org/spec/Commons/ContextualDesignators/hasApplicablePeriod</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/EuropeanMedicinesAgencyAsMedicinesRegulatoryAgency&gt;-&gt;&lt;https://www.omg.org/spec/Commons/RegistrationAuthorities/manages&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/EuropeanMedicinesAgencyAsMedicinesRegulatoryAgency&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ContextualDesignators/hasApplicablePeriod&gt;</t>
         </is>
       </c>
     </row>
@@ -2957,17 +2957,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/ProductsAndServices/issues</t>
+          <t>https://www.omg.org/spec/Commons/RegistrationAuthorities/registers</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#NodeKindConstraintComponent</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/EuropeanMedicinesAgencyAsMedicinesRegulatoryAgency&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ProductsAndServices/issues&gt;</t>
+          <t>Value is not of Node Kind rdfs:Literal</t>
         </is>
       </c>
     </row>
@@ -2979,12 +2979,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/EuropeanMedicinesAgencyAsMedicinesRegulatoryAgency</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/EvaluationsOfTheJointExpertCommitteeOnFoodAdditives</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/ProductsAndServices/provides</t>
+          <t>https://www.omg.org/spec/Commons/Collections/comprises</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/EuropeanMedicinesAgencyAsMedicinesRegulatoryAgency&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ProductsAndServices/provides&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/EvaluationsOfTheJointExpertCommitteeOnFoodAdditives&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/comprises&gt;</t>
         </is>
       </c>
     </row>
@@ -3006,12 +3006,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/EuropeanMedicinesAgencyAsMedicinesRegulatoryAgency</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/GlobalSubstanceRegistryService</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/RegulatoryAgencies/regulates</t>
+          <t>https://www.omg.org/spec/Commons/ProductsAndServices/provides</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/EuropeanMedicinesAgencyAsMedicinesRegulatoryAgency&gt;-&gt;&lt;https://www.omg.org/spec/Commons/RegulatoryAgencies/regulates&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/GlobalSubstanceRegistryService&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ProductsAndServices/provides&gt;</t>
         </is>
       </c>
     </row>
@@ -3033,12 +3033,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/EuropeanMedicinesAgencyAsMedicinesRegulatoryAgency</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/IntegratedTaxonomicInformationSystemOrganization</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/ContextualDesignators/hasApplicablePeriod</t>
+          <t>https://www.omg.org/spec/Commons/Designators/hasName</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/EuropeanMedicinesAgencyAsMedicinesRegulatoryAgency&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ContextualDesignators/hasApplicablePeriod&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/IntegratedTaxonomicInformationSystemOrganization&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Designators/hasName&gt;</t>
         </is>
       </c>
     </row>
@@ -3060,22 +3060,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/EuropeanMedicinesAgencyAsMedicinesRegulatoryAgency</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/ConformanceLevel-Conditional</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/RegistrationAuthorities/isRegistrationAuthorityFor</t>
+          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/EuropeanMedicinesAgencyAsMedicinesRegulatoryAgency&gt;-&gt;&lt;https://www.omg.org/spec/Commons/RegistrationAuthorities/isRegistrationAuthorityFor&gt;</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
         </is>
       </c>
     </row>
@@ -3087,12 +3087,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/EuropeanMedicinesAgencyAsMedicinesRegulatoryAgency</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/ConformanceLevel-Conditional</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/ProductsAndServices/provides</t>
+          <t>https://www.omg.org/spec/Commons/Classifiers/classifies</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/EuropeanMedicinesAgencyAsMedicinesRegulatoryAgency&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ProductsAndServices/provides&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/ConformanceLevel-Conditional&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Classifiers/classifies&gt;</t>
         </is>
       </c>
     </row>
@@ -3114,22 +3114,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/EuropeanMedicinesAgencyAsMedicinesRegulatoryAgency</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/OfficialNameStatus-Primary</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/RegistrationAuthorities/registers</t>
+          <t>https://www.omg.org/spec/Commons/Classifiers/classifies</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#NodeKindConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Value is not of Node Kind rdfs:Literal</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/OfficialNameStatus-Primary&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Classifiers/classifies&gt;</t>
         </is>
       </c>
     </row>
@@ -3141,12 +3141,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/ExtendedEudraVigilanceMedicinalProductDictionaryService</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/OfficialNameStatus-Primary</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/ProductsAndServices/provides</t>
+          <t>https://www.omg.org/spec/Commons/Classifiers/classifies</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/ExtendedEudraVigilanceMedicinalProductDictionaryService&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ProductsAndServices/provides&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/OfficialNameStatus-Primary&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Classifiers/classifies&gt;</t>
         </is>
       </c>
     </row>
@@ -3168,12 +3168,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/SummaryOfProductCharacteristics</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/OpticalActivity-Right</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/comprises</t>
+          <t>https://www.omg.org/spec/Commons/Classifiers/classifies</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/SummaryOfProductCharacteristics&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/comprises&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/OpticalActivity-Right&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Classifiers/classifies&gt;</t>
         </is>
       </c>
     </row>
@@ -3195,12 +3195,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/UnitedStatesFoodAndDrugAdministration</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/Stereochemistry-AxialR</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Designators/hasName</t>
+          <t>https://www.omg.org/spec/Commons/Classifiers/classifies</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3210,7 +3210,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/UnitedStatesFoodAndDrugAdministration&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Designators/hasName&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/Stereochemistry-AxialR&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Classifiers/classifies&gt;</t>
         </is>
       </c>
     </row>
@@ -3222,22 +3222,22 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/ConformanceLevel-Conditional</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/Stereochemistry-AxialR</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
+          <t>https://www.omg.org/spec/Commons/Collections/hasMethod</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/Stereochemistry-AxialR&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/hasMethod&gt;</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/ConformanceLevel-Conditional</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/SubstanceNameClassifier-OfficialName</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3259,12 +3259,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#NodeKindConstraintComponent</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/ConformanceLevel-Conditional&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Classifiers/classifies&gt;</t>
+          <t>Value is not of Node Kind rdfs:Literal</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/OfficialNameStatus-Current</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/SubstanceNameClassifier-SpecifiedSubstanceGroup3Name</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3286,12 +3286,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#NodeKindConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Value is not of Node Kind rdfs:Literal</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/SubstanceNameClassifier-SpecifiedSubstanceGroup3Name&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Classifiers/classifies&gt;</t>
         </is>
       </c>
     </row>
@@ -3303,22 +3303,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/OfficialNameStatus-Primary</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/IngredientRole-ACTI</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Classifiers/classifies</t>
+          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/OfficialNameStatus-Primary&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Classifiers/classifies&gt;</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
         </is>
       </c>
     </row>
@@ -3330,22 +3330,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/OpticalActivity-EitherDirection</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/CodingRationale-P</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Classifiers/classifies</t>
+          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#NodeKindConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Value is not of Node Kind rdfs:Literal</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
         </is>
       </c>
     </row>
@@ -3357,12 +3357,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/Stereochemistry-SquarePlanar1</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/CompressionAlgorithmEnumeration</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Classifiers/classifies</t>
+          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3372,7 +3372,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/Stereochemistry-SquarePlanar1&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Classifiers/classifies&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/CompressionAlgorithmEnumeration&gt;-&gt;&lt;https://www.omg.org/spec/Commons/TextDatatype/hasTextValue&gt;</t>
         </is>
       </c>
     </row>
@@ -3384,22 +3384,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/Stereochemistry-SquarePlanar1</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/IntegrityCheckAlgorithm-SHA256</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/hasMethod</t>
+          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/Stereochemistry-SquarePlanar1&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/hasMethod&gt;</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
         </is>
       </c>
     </row>
@@ -3411,22 +3411,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/SubstanceNameClassifier-CompanyCode</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/NullFlavor-QS</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Classifiers/classifies</t>
+          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/SubstanceNameClassifier-CompanyCode&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Classifiers/classifies&gt;</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
         </is>
       </c>
     </row>
@@ -3438,22 +3438,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/SubstanceNameClassifier-CompanyCode</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/UpdateMode-R</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Classifiers/classifies</t>
+          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/SubstanceNameClassifier-CompanyCode&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Classifiers/classifies&gt;</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
         </is>
       </c>
     </row>
@@ -3465,22 +3465,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/IngredientRole-INGR</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/META/ChangeManagement/Preliminary</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
+          <t>https://www.omg.org/spec/Commons/Classifiers/classifies</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/META/ChangeManagement/Preliminary&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Classifiers/classifies&gt;</t>
         </is>
       </c>
     </row>
@@ -3492,12 +3492,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/CodingRationaleEnumeration</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/META/ISOConformanceAnnotations/NamingConformant</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
+          <t>https://www.omg.org/spec/Commons/Classifiers/classifies</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3507,7 +3507,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/CodingRationaleEnumeration&gt;-&gt;&lt;https://www.omg.org/spec/Commons/TextDatatype/hasTextValue&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/META/ISOConformanceAnnotations/NamingConformant&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Classifiers/classifies&gt;</t>
         </is>
       </c>
     </row>
@@ -3519,22 +3519,22 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/CompressionAlgorithm-Z</t>
+          <t>https://www.clinicaltrialsregister.eu/ctr-search/trial/2010-022372-31/DE</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
+          <t>https://www.omg.org/spec/Commons/PartiesAndSituations/holdsDuring</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
+          <t>Less than 1 values on &lt;https://www.clinicaltrialsregister.eu/ctr-search/trial/2010-022372-31/DE&gt;-&gt;&lt;https://www.omg.org/spec/Commons/PartiesAndSituations/holdsDuring&gt;</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/IntegrityCheckAlgorithmEnumeration</t>
+          <t>https://www.ebi.ac.uk/chebi/chebiOntology.do?chebiId=CHEBI:2668</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3556,12 +3556,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/IntegrityCheckAlgorithmEnumeration&gt;-&gt;&lt;https://www.omg.org/spec/Commons/TextDatatype/hasTextValue&gt;</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
         </is>
       </c>
     </row>
@@ -3573,22 +3573,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/NullFlavor-PINF</t>
+          <t>https://www.ebi.ac.uk/chebi/chebiOntology.do?chebiId=CHEBI:2668</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
+          <t>https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
+          <t>Less than 1 values on &lt;https://www.ebi.ac.uk/chebi/chebiOntology.do?chebiId=CHEBI:2668&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn&gt;</t>
         </is>
       </c>
     </row>
@@ -3600,12 +3600,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/UpdateModeEnumeration</t>
+          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/InternationalSystemOfQuantities</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
+          <t>https://www.omg.org/spec/Commons/ContextualDesignators/uses</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3615,7 +3615,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/UpdateModeEnumeration&gt;-&gt;&lt;https://www.omg.org/spec/Commons/TextDatatype/hasTextValue&gt;</t>
+          <t>Less than 1 values on &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/InternationalSystemOfQuantities&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ContextualDesignators/uses&gt;</t>
         </is>
       </c>
     </row>
@@ -3627,12 +3627,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/META/ChangeManagement/Release</t>
+          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/InternationalSystemOfQuantities</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Classifiers/classifies</t>
+          <t>https://www.omg.org/spec/Commons/Collections/comprises</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/META/ChangeManagement/Release&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Classifiers/classifies&gt;</t>
+          <t>Less than 1 values on &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/InternationalSystemOfQuantities&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/comprises&gt;</t>
         </is>
       </c>
     </row>
@@ -3654,12 +3654,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/META/ISOConformanceAnnotations/DefinitionallyConformant</t>
+          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/InternationalSystemOfQuantities</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Classifiers/classifies</t>
+          <t>https://www.omg.org/spec/Commons/Collections/hasMethod</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/META/ISOConformanceAnnotations/DefinitionallyConformant&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Classifiers/classifies&gt;</t>
+          <t>Less than 1 values on &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/InternationalSystemOfQuantities&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/hasMethod&gt;</t>
         </is>
       </c>
     </row>
@@ -3681,12 +3681,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://www.clinicaltrialsregister.eu/ctr-search/trial/2010-022372-31/DE</t>
+          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/InternationalSystemOfUnits</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/PartiesAndSituations/holdsDuring</t>
+          <t>https://www.omg.org/spec/Commons/Collections/comprises</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://www.clinicaltrialsregister.eu/ctr-search/trial/2010-022372-31/DE&gt;-&gt;&lt;https://www.omg.org/spec/Commons/PartiesAndSituations/holdsDuring&gt;</t>
+          <t>Less than 1 values on &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/InternationalSystemOfUnits&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/comprises&gt;</t>
         </is>
       </c>
     </row>
@@ -3708,22 +3708,22 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://www.ebi.ac.uk/chebi/chebiOntology.do?chebiId=CHEBI:2668</t>
+          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/InternationalSystemOfUnits</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
+          <t>https://www.omg.org/spec/Commons/ContextualDesignators/uses</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
+          <t>Less than 1 values on &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/InternationalSystemOfUnits&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ContextualDesignators/uses&gt;</t>
         </is>
       </c>
     </row>
@@ -3735,12 +3735,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://www.ebi.ac.uk/chebi/chebiOntology.do?chebiId=CHEBI:2668</t>
+          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/InternationalSystemOfUnits</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn</t>
+          <t>https://www.omg.org/spec/Commons/Collections/hasMethod</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://www.ebi.ac.uk/chebi/chebiOntology.do?chebiId=CHEBI:2668&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn&gt;</t>
+          <t>Less than 1 values on &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/InternationalSystemOfUnits&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/hasMethod&gt;</t>
         </is>
       </c>
     </row>
@@ -3762,22 +3762,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/InternationalSystemOfQuantities</t>
+          <t>https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/Country</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/hasMethod</t>
+          <t>https://www.omg.org/spec/Commons/Classifiers/classifies</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#NodeKindConstraintComponent</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/InternationalSystemOfQuantities&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/hasMethod&gt;</t>
+          <t>Value is not of Node Kind rdfs:Literal</t>
         </is>
       </c>
     </row>
@@ -3789,22 +3789,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/InternationalSystemOfQuantities</t>
+          <t>https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/JPN</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/comprises</t>
+          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/InternationalSystemOfQuantities&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/comprises&gt;</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
         </is>
       </c>
     </row>
@@ -3816,12 +3816,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/InternationalSystemOfQuantities</t>
+          <t>https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/JPN</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/ContextualDesignators/uses</t>
+          <t>https://www.omg.org/spec/Commons/Collections/compliesWith</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/InternationalSystemOfQuantities&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ContextualDesignators/uses&gt;</t>
+          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/JPN&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/compliesWith&gt;</t>
         </is>
       </c>
     </row>
@@ -3843,22 +3843,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/InternationalSystemOfUnits</t>
+          <t>https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/LC</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/ContextualDesignators/uses</t>
+          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/InternationalSystemOfUnits&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ContextualDesignators/uses&gt;</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
         </is>
       </c>
     </row>
@@ -3870,12 +3870,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/InternationalSystemOfUnits</t>
+          <t>https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/LC</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/comprises</t>
+          <t>https://www.omg.org/spec/Commons/Collections/compliesWith</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/InternationalSystemOfUnits&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/comprises&gt;</t>
+          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/LC&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/compliesWith&gt;</t>
         </is>
       </c>
     </row>
@@ -3897,22 +3897,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/InternationalSystemOfUnits</t>
+          <t>https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/crs</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/hasMethod</t>
+          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/InternationalSystemOfUnits&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/hasMethod&gt;</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
         </is>
       </c>
     </row>
@@ -3924,22 +3924,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/Country</t>
+          <t>https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/crs</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Classifiers/classifies</t>
+          <t>https://www.omg.org/spec/Commons/Collections/compliesWith</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#NodeKindConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Value is not of Node Kind rdfs:Literal</t>
+          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/crs&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/compliesWith&gt;</t>
         </is>
       </c>
     </row>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/FRO</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-1-LanguageCodes/kg</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/FRO</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-1-LanguageCodes/kg</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/FRO&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/compliesWith&gt;</t>
+          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-1-LanguageCodes/kg&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/compliesWith&gt;</t>
         </is>
       </c>
     </row>
@@ -4005,22 +4005,22 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/L002</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Afrihili</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
+          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasIndigenousName</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
+          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Afrihili&gt;-&gt;&lt;https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasIndigenousName&gt;</t>
         </is>
       </c>
     </row>
@@ -4032,12 +4032,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/L002</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Afrihili</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/compliesWith</t>
+          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasGermanName</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4047,7 +4047,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/L002&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/compliesWith&gt;</t>
+          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Afrihili&gt;-&gt;&lt;https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasGermanName&gt;</t>
         </is>
       </c>
     </row>
@@ -4059,22 +4059,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/TM</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Afrihili</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
+          <t>https://www.omg.org/spec/Commons/Collections/hasMethod</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
+          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Afrihili&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/hasMethod&gt;</t>
         </is>
       </c>
     </row>
@@ -4086,12 +4086,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/TM</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Gbaya</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/compliesWith</t>
+          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasIndigenousName</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/TM&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/compliesWith&gt;</t>
+          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Gbaya&gt;-&gt;&lt;https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasIndigenousName&gt;</t>
         </is>
       </c>
     </row>
@@ -4113,12 +4113,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/ISO639-1-LanguageCodes/Sanskrit</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Gbaya</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/hasMethod</t>
+          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasGermanName</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-1-LanguageCodes/Sanskrit&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/hasMethod&gt;</t>
+          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Gbaya&gt;-&gt;&lt;https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasGermanName&gt;</t>
         </is>
       </c>
     </row>
@@ -4140,22 +4140,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/ISO639-1-LanguageCodes/Sanskrit</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Gbaya</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasGermanName</t>
+          <t>https://www.omg.org/spec/Commons/Collections/hasMethod</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#NodeKindConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Value is not of Node Kind rdfs:Literal</t>
+          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Gbaya&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/hasMethod&gt;</t>
         </is>
       </c>
     </row>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/ISO639-1-LanguageCodes/Sanskrit</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Geez</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4177,12 +4177,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#NodeKindConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Value is not of Node Kind rdfs:Literal</t>
+          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Geez&gt;-&gt;&lt;https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasIndigenousName&gt;</t>
         </is>
       </c>
     </row>
@@ -4194,22 +4194,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/ISO639-1-LanguageCodes/lt</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Geez</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/TextDatatype/hasTextValue</t>
+          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasGermanName</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
+          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Geez&gt;-&gt;&lt;https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasGermanName&gt;</t>
         </is>
       </c>
     </row>
@@ -4221,12 +4221,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/ISO639-1-LanguageCodes/lt</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Geez</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/compliesWith</t>
+          <t>https://www.omg.org/spec/Commons/Collections/hasMethod</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-1-LanguageCodes/lt&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/compliesWith&gt;</t>
+          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Geez&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/hasMethod&gt;</t>
         </is>
       </c>
     </row>
@@ -4248,12 +4248,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Bliss</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/MiddleHighGerman</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasGermanName</t>
+          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasIndigenousName</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4263,7 +4263,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Bliss&gt;-&gt;&lt;https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasGermanName&gt;</t>
+          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/MiddleHighGerman&gt;-&gt;&lt;https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasIndigenousName&gt;</t>
         </is>
       </c>
     </row>
@@ -4275,12 +4275,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Bliss</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/MiddleHighGerman</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/hasMethod</t>
+          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasGermanName</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Bliss&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/hasMethod&gt;</t>
+          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/MiddleHighGerman&gt;-&gt;&lt;https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasGermanName&gt;</t>
         </is>
       </c>
     </row>
@@ -4302,12 +4302,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Bliss</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/MiddleHighGerman</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasIndigenousName</t>
+          <t>https://www.omg.org/spec/Commons/Collections/hasMethod</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4317,7 +4317,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Bliss&gt;-&gt;&lt;https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasIndigenousName&gt;</t>
+          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/MiddleHighGerman&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/hasMethod&gt;</t>
         </is>
       </c>
     </row>
@@ -4329,12 +4329,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/NoLinguisticContent</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Tokelau</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasGermanName</t>
+          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasIndigenousName</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/NoLinguisticContent&gt;-&gt;&lt;https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasGermanName&gt;</t>
+          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Tokelau&gt;-&gt;&lt;https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasIndigenousName&gt;</t>
         </is>
       </c>
     </row>
@@ -4356,12 +4356,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/NoLinguisticContent</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Tokelau</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/hasMethod</t>
+          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasGermanName</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4371,7 +4371,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/NoLinguisticContent&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/hasMethod&gt;</t>
+          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Tokelau&gt;-&gt;&lt;https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasGermanName&gt;</t>
         </is>
       </c>
     </row>
@@ -4383,12 +4383,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/NoLinguisticContent</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Tokelau</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasIndigenousName</t>
+          <t>https://www.omg.org/spec/Commons/Collections/hasMethod</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/NoLinguisticContent&gt;-&gt;&lt;https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasIndigenousName&gt;</t>
+          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Tokelau&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/hasMethod&gt;</t>
         </is>
       </c>
     </row>
@@ -4410,12 +4410,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/OldIrish</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Undetermined</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasGermanName</t>
+          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasIndigenousName</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4425,7 +4425,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/OldIrish&gt;-&gt;&lt;https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasGermanName&gt;</t>
+          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Undetermined&gt;-&gt;&lt;https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasIndigenousName&gt;</t>
         </is>
       </c>
     </row>
@@ -4437,12 +4437,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/OldIrish</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Undetermined</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/hasMethod</t>
+          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasGermanName</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/OldIrish&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/hasMethod&gt;</t>
+          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Undetermined&gt;-&gt;&lt;https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasGermanName&gt;</t>
         </is>
       </c>
     </row>
@@ -4464,12 +4464,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/OldIrish</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Undetermined</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasIndigenousName</t>
+          <t>https://www.omg.org/spec/Commons/Collections/hasMethod</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4479,7 +4479,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/OldIrish&gt;-&gt;&lt;https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasIndigenousName&gt;</t>
+          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Undetermined&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/hasMethod&gt;</t>
         </is>
       </c>
     </row>
@@ -4491,7 +4491,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/mya</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/baq</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4518,7 +4518,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/mya</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/baq</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/mya&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/compliesWith&gt;</t>
+          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/baq&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/compliesWith&gt;</t>
         </is>
       </c>
     </row>
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/rum</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/ell</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/rum</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/ell</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/rum&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/compliesWith&gt;</t>
+          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/ell&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/compliesWith&gt;</t>
         </is>
       </c>
     </row>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://chem.nlm.nih.gov/chemidplus/rn/88150-42-9</t>
+          <t>https://chem.nlm.nih.gov/chemidplus/rn/14636-12-5</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -4614,7 +4614,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://chem.nlm.nih.gov/chemidplus/rn/88150-42-9&gt;-&gt;&lt;https://www.omg.org/spec/Commons/RegistrationAuthorities/hasRegistrationDate&gt;</t>
+          <t>Less than 1 values on &lt;https://chem.nlm.nih.gov/chemidplus/rn/14636-12-5&gt;-&gt;&lt;https://www.omg.org/spec/Commons/RegistrationAuthorities/hasRegistrationDate&gt;</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4626,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://chem.nlm.nih.gov/chemidplus/rn/88150-42-9</t>
+          <t>https://chem.nlm.nih.gov/chemidplus/rn/14636-12-5</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://chem.nlm.nih.gov/chemidplus/rn/88150-42-9&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/compliesWith&gt;</t>
+          <t>Less than 1 values on &lt;https://chem.nlm.nih.gov/chemidplus/rn/14636-12-5&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/compliesWith&gt;</t>
         </is>
       </c>
     </row>
@@ -4653,7 +4653,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/Amlodipine</t>
+          <t>https://gsrs.ncats.nih.gov/api/v1/substances/beaecfe8-eccb-44ab-b842-ae2cc60ff3e4</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/Amlodipine&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/isStoichiometric&gt;</t>
+          <t>Less than 1 values on &lt;https://gsrs.ncats.nih.gov/api/v1/substances/beaecfe8-eccb-44ab-b842-ae2cc60ff3e4&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/isStoichiometric&gt;</t>
         </is>
       </c>
     </row>
@@ -4680,7 +4680,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineBesylateMolecularStructure</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineMesylateMonohydrateMolecularStructure</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineBesylateMolecularStructure</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineMesylateMonohydrateMolecularStructure</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -4722,7 +4722,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>More than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineBesylateMolecularStructure&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Classifiers/isClassifiedBy&gt;</t>
+          <t>More than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineMesylateMonohydrateMolecularStructure&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Classifiers/isClassifiedBy&gt;</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4896,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/UNII-4U092XZF0K</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/UNII-7Z5X49W53P</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/UNII-4U092XZF0K&gt;-&gt;&lt;https://www.omg.org/spec/Commons/RegistrationAuthorities/hasRegistrationDate&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/UNII-7Z5X49W53P&gt;-&gt;&lt;https://www.omg.org/spec/Commons/RegistrationAuthorities/hasRegistrationDate&gt;</t>
         </is>
       </c>
     </row>
@@ -4923,7 +4923,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/UNII-4U092XZF0K</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/UNII-7Z5X49W53P</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/UNII-4U092XZF0K&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/compliesWith&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/UNII-7Z5X49W53P&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/compliesWith&gt;</t>
         </is>
       </c>
     </row>
@@ -4977,12 +4977,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Ampoule</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Gram</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11240-UnitsOfMeasurement/isSIQuantity</t>
+          <t>https://www.omg.org/spec/Commons/Designators/hasDescription</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Ampoule&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11240-UnitsOfMeasurement/isSIQuantity&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Gram&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Designators/hasDescription&gt;</t>
         </is>
       </c>
     </row>
@@ -5004,12 +5004,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Ampoule</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Kilo</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Designators/hasDescription</t>
+          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasFactorValue</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5019,7 +5019,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Ampoule&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Designators/hasDescription&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Kilo&gt;-&gt;&lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasFactorValue&gt;</t>
         </is>
       </c>
     </row>
@@ -5031,12 +5031,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Kilo</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/MassConcentration</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasFactorValue</t>
+          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasDimension</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5046,7 +5046,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Kilo&gt;-&gt;&lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasFactorValue&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/MassConcentration&gt;-&gt;&lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasDimension&gt;</t>
         </is>
       </c>
     </row>
@@ -5058,7 +5058,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Kilogram</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Milliliter</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5085,12 +5085,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/MassConcentration</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Tablet</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasDimension</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11240-UnitsOfMeasurement/isSIQuantity</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/MassConcentration&gt;-&gt;&lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasDimension&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Tablet&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11240-UnitsOfMeasurement/isSIQuantity&gt;</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5112,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Mole</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Tablet</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -5122,12 +5122,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/TextDatatype/Text&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Tablet&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Designators/hasDescription&gt;</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/Chad</t>
+          <t>https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/Haiti</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/Chad</t>
+          <t>https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/Haiti</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/Chad</t>
+          <t>https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/Haiti</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/Chad</t>
+          <t>https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/Haiti</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/Chad</t>
+          <t>https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/Haiti</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -5382,7 +5382,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/Chad</t>
+          <t>https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/Haiti</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -5409,7 +5409,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://chem.nlm.nih.gov/chemidplus/rn/88150-42-9</t>
+          <t>https://chem.nlm.nih.gov/chemidplus/rn/14636-12-5</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -5424,7 +5424,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://chem.nlm.nih.gov/chemidplus/rn/88150-42-9&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isMemberOf&gt;</t>
+          <t>Less than 1 values on &lt;https://chem.nlm.nih.gov/chemidplus/rn/14636-12-5&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isMemberOf&gt;</t>
         </is>
       </c>
     </row>
@@ -5463,22 +5463,22 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://id.loc.gov/vocabulary/iso639-1/qu</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/EVMPD-SUB05467MIG</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasFrenchName</t>
+          <t>https://www.omg.org/spec/Commons/Collections/isMemberOf</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Value does not have class rdfs:Literal</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/EVMPD-SUB05467MIG&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isMemberOf&gt;</t>
         </is>
       </c>
     </row>
@@ -5490,12 +5490,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://id.loc.gov/vocabulary/iso639-1/qu</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/PfizerLaboratoriesAsManufacturer</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasEnglishName</t>
+          <t>https://www.omg.org/spec/Commons/ProductsAndServices/produces</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5505,7 +5505,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Value does not have class rdfs:Literal</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/ProductsAndServices/Good&gt;</t>
         </is>
       </c>
     </row>
@@ -5517,22 +5517,22 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://id.loc.gov/vocabulary/iso639-1/wa</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/DynavaxTechnologiesCorporationAsMarketingAuthorizationHolder</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasFrenchName</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/isAuthorizedThrough</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Value does not have class rdfs:Literal</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/DynavaxTechnologiesCorporationAsMarketingAuthorizationHolder&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/isAuthorizedThrough&gt;</t>
         </is>
       </c>
     </row>
@@ -5544,12 +5544,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://id.loc.gov/vocabulary/iso639-1/wa</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/EngerixBMarketingAuthorizationInEuropeanUnion</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasEnglishName</t>
+          <t>https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5559,7 +5559,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Value does not have class rdfs:Literal</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/LCC/Countries/CountryRepresentation/GeographicRegion&gt;</t>
         </is>
       </c>
     </row>
@@ -5571,22 +5571,22 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/AmlodipineOfficialName</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/EudraClinicalTrialsNumber-2014-002112-16</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Classifiers/isClassifiedBy</t>
+          <t>https://www.omg.org/spec/Commons/Collections/isMemberOf</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/OfficialNameStatus&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/EudraClinicalTrialsNumber-2014-002112-16&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isMemberOf&gt;</t>
         </is>
       </c>
     </row>
@@ -5598,12 +5598,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/EVMPD-SUB05467MIG</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/EudraClinicalTrialsNumber-2014-002112-16</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/isMemberOf</t>
+          <t>https://www.omg.org/spec/Commons/RegistrationAuthorities/isRegisteredBy</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5613,7 +5613,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/EVMPD-SUB05467MIG&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isMemberOf&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/EudraClinicalTrialsNumber-2014-002112-16&gt;-&gt;&lt;https://www.omg.org/spec/Commons/RegistrationAuthorities/isRegisteredBy&gt;</t>
         </is>
       </c>
     </row>
@@ -5625,22 +5625,22 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/AmlodipineExample/PfizerLaboratoriesAsManufacturer</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/HeplisavPharmaceuticalProduct</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/ProductsAndServices/produces</t>
+          <t>https://www.omg.org/spec/Commons/Designators/isDefinedIn</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/ProductsAndServices/Good&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/HeplisavPharmaceuticalProduct&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Designators/isDefinedIn&gt;</t>
         </is>
       </c>
     </row>
@@ -5652,12 +5652,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/DynavaxTechnologiesCorporationAsMarketingAuthorizationHolder</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/MarketingAuthorizationNumber-EMEA-H-C-000550</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/isAuthorizedThrough</t>
+          <t>https://www.omg.org/spec/Commons/RegistrationAuthorities/isRegisteredIn</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/DynavaxTechnologiesCorporationAsMarketingAuthorizationHolder&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/isAuthorizedThrough&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/MarketingAuthorizationNumber-EMEA-H-C-000550&gt;-&gt;&lt;https://www.omg.org/spec/Commons/RegistrationAuthorities/isRegisteredIn&gt;</t>
         </is>
       </c>
     </row>
@@ -5679,22 +5679,22 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/EngerixBMarketingAuthorizationInEuropeanUnion</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/MarketingAuthorizationNumber-EMEA-H-C-000550</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn</t>
+          <t>https://www.omg.org/spec/Commons/Collections/isMemberOf</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://www.omg.org/spec/LCC/Countries/CountryRepresentation/GeographicRegion&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/MarketingAuthorizationNumber-EMEA-H-C-000550&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isMemberOf&gt;</t>
         </is>
       </c>
     </row>
@@ -5706,22 +5706,22 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/EudraClinicalTrialsNumber-2014-002112-16</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/NorvascMarketingAuthorizationInGermany</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/isMemberOf</t>
+          <t>https://www.omg.org/spec/Commons/ContextualDesignators/appliesTo</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/EudraClinicalTrialsNumber-2014-002112-16&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isMemberOf&gt;</t>
+          <t>Value does not have class &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/MedicinalProduct&gt;</t>
         </is>
       </c>
     </row>
@@ -5733,12 +5733,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/EudraClinicalTrialsNumber-2014-002112-16</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAsReferenceStrengthInTerlipressinAcetate1MgPerAmpouleSolutionForInjection</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/RegistrationAuthorities/isRegisteredBy</t>
+          <t>https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/EudraClinicalTrialsNumber-2014-002112-16&gt;-&gt;&lt;https://www.omg.org/spec/Commons/RegistrationAuthorities/isRegisteredBy&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAsReferenceStrengthInTerlipressinAcetate1MgPerAmpouleSolutionForInjection&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn&gt;</t>
         </is>
       </c>
     </row>
@@ -5760,12 +5760,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/FendrixMarketingAuthorizationInEuropeanUnion</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinOfficialName</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/ContextualDesignators/appliesTo</t>
+          <t>https://www.omg.org/spec/Commons/Classifiers/isClassifiedBy</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/MedicinalProduct&gt;</t>
+          <t>Value does not have class &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/OfficialNameStatus&gt;</t>
         </is>
       </c>
     </row>
@@ -5787,12 +5787,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/FendrixPharmaceuticalProduct</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/UNII-7Z5X49W53P</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Designators/isDefinedIn</t>
+          <t>https://www.omg.org/spec/Commons/Collections/isMemberOf</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5802,7 +5802,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/FendrixPharmaceuticalProduct&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Designators/isDefinedIn&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/UNII-7Z5X49W53P&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isMemberOf&gt;</t>
         </is>
       </c>
     </row>
@@ -5814,12 +5814,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/MarketingAuthorizationNumber-EMEA-H-C-000550</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Gram</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/isMemberOf</t>
+          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasQuantityKind</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/MarketingAuthorizationNumber-EMEA-H-C-000550&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isMemberOf&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Gram&gt;-&gt;&lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasQuantityKind&gt;</t>
         </is>
       </c>
     </row>
@@ -5841,12 +5841,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/MarketingAuthorizationNumber-EMEA-H-C-000550</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Gram</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/RegistrationAuthorities/isRegisteredIn</t>
+          <t>https://www.omg.org/spec/Commons/Identifiers/isIdentifiedBy</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/EuropeanUnionClinicalTrialsRegister/MarketingAuthorizationNumber-EMEA-H-C-000550&gt;-&gt;&lt;https://www.omg.org/spec/Commons/RegistrationAuthorities/isRegisteredIn&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Gram&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Identifiers/isIdentifiedBy&gt;</t>
         </is>
       </c>
     </row>
@@ -5868,22 +5868,22 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAsReferenceStrengthInTerlipressinAcetate1MgPerAmpouleSolutionForInjection</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Milliliter</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn</t>
+          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/isDerivedFrom</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/TerlipressinAsReferenceStrengthInTerlipressinAcetate1MgPerAmpouleSolutionForInjection&gt;-&gt;&lt;https://www.omg.org/spec/Commons/ContextualDesignators/isApplicableIn&gt;</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/BaseUnit&gt;</t>
         </is>
       </c>
     </row>
@@ -5895,12 +5895,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/UNII-4U092XZF0K</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Milliliter</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/isMemberOf</t>
+          <t>https://www.omg.org/spec/Commons/Identifiers/isIdentifiedBy</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5910,7 +5910,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Examples/TerlipressinExample/UNII-4U092XZF0K&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isMemberOf&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Milliliter&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Identifiers/isIdentifiedBy&gt;</t>
         </is>
       </c>
     </row>
@@ -5922,7 +5922,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Ampoule</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Tablet</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Ampoule&gt;-&gt;&lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasQuantityKind&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Tablet&gt;-&gt;&lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasQuantityKind&gt;</t>
         </is>
       </c>
     </row>
@@ -5949,7 +5949,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Ampoule</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Tablet</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -5964,7 +5964,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Ampoule&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Identifiers/isIdentifiedBy&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Tablet&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Identifiers/isIdentifiedBy&gt;</t>
         </is>
       </c>
     </row>
@@ -5976,12 +5976,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Kilogram</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/EvaluationsOfTheJointExpertCommitteeOnFoodAdditives</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Identifiers/isIdentifiedBy</t>
+          <t>https://www.omg.org/spec/Commons/RegistrationAuthorities/isManagedBy</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Kilogram&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Identifiers/isIdentifiedBy&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/EvaluationsOfTheJointExpertCommitteeOnFoodAdditives&gt;-&gt;&lt;https://www.omg.org/spec/Commons/RegistrationAuthorities/isManagedBy&gt;</t>
         </is>
       </c>
     </row>
@@ -6003,22 +6003,22 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/MicrogramsPerMilliliter</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/ConformanceLevel-Conditional</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/isDerivedFrom</t>
+          <t>https://www.omg.org/spec/Commons/Designators/denotes</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/BaseUnit&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/ConformanceLevel-Conditional&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Designators/denotes&gt;</t>
         </is>
       </c>
     </row>
@@ -6030,12 +6030,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Mole</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/IngredientRole-ACTI</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasQuantityKind</t>
+          <t>https://www.omg.org/spec/Commons/Designators/denotes</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6045,7 +6045,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Mole&gt;-&gt;&lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/hasQuantityKind&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/IngredientRole-ACTI&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Designators/denotes&gt;</t>
         </is>
       </c>
     </row>
@@ -6057,12 +6057,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Mole</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/CodingRationale-P</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Identifiers/isIdentifiedBy</t>
+          <t>https://www.omg.org/spec/Commons/Designators/denotes</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/EXT/Extensions/UnifiedCodeForUnitsOfMeasure/Mole&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Identifiers/isIdentifiedBy&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/CodingRationale-P&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Designators/denotes&gt;</t>
         </is>
       </c>
     </row>
@@ -6084,12 +6084,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/UniProt</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/CodingRationaleEnumeration</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/RegistrationAuthorities/isManagedBy</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/hasLevelInHierarchy</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6099,7 +6099,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-RegistrationAuthorities/UniProt&gt;-&gt;&lt;https://www.omg.org/spec/Commons/RegistrationAuthorities/isManagedBy&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/CodingRationaleEnumeration&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/hasLevelInHierarchy&gt;</t>
         </is>
       </c>
     </row>
@@ -6111,12 +6111,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/ConformanceLevel-Conditional</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/CodingRationaleEnumeration</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Designators/denotes</t>
+          <t>https://www.omg.org/spec/Commons/Collections/isMemberOf</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11238-Substances/ConformanceLevel-Conditional&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Designators/denotes&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/CodingRationaleEnumeration&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isMemberOf&gt;</t>
         </is>
       </c>
     </row>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/IngredientRole-INGR</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/CompressionAlgorithmEnumeration</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/IngredientRole-INGR&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Designators/denotes&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/CompressionAlgorithmEnumeration&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Designators/denotes&gt;</t>
         </is>
       </c>
     </row>
@@ -6165,12 +6165,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/CodingRationaleEnumeration</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/CompressionAlgorithmEnumeration</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Designators/denotes</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/hasLevelInHierarchy</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/CodingRationaleEnumeration&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Designators/denotes&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/CompressionAlgorithmEnumeration&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/hasLevelInHierarchy&gt;</t>
         </is>
       </c>
     </row>
@@ -6192,12 +6192,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/CodingRationaleEnumeration</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/CompressionAlgorithmEnumeration</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/hasLevelInHierarchy</t>
+          <t>https://www.omg.org/spec/Commons/Collections/isMemberOf</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -6207,7 +6207,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/CodingRationaleEnumeration&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/hasLevelInHierarchy&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/CompressionAlgorithmEnumeration&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isMemberOf&gt;</t>
         </is>
       </c>
     </row>
@@ -6219,12 +6219,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/CodingRationaleEnumeration</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/IntegrityCheckAlgorithm-SHA256</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/isMemberOf</t>
+          <t>https://www.omg.org/spec/Commons/Designators/denotes</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -6234,7 +6234,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/CodingRationaleEnumeration&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isMemberOf&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/IntegrityCheckAlgorithm-SHA256&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Designators/denotes&gt;</t>
         </is>
       </c>
     </row>
@@ -6246,12 +6246,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/CompressionAlgorithm-Z</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/IntegrityCheckAlgorithmEnumeration</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Designators/denotes</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/hasLevelInHierarchy</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/CompressionAlgorithm-Z&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Designators/denotes&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/IntegrityCheckAlgorithmEnumeration&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/hasLevelInHierarchy&gt;</t>
         </is>
       </c>
     </row>
@@ -6273,12 +6273,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/CompressionAlgorithmEnumeration</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/IntegrityCheckAlgorithmEnumeration</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/hasLevelInHierarchy</t>
+          <t>https://www.omg.org/spec/Commons/Collections/isMemberOf</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -6288,7 +6288,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/CompressionAlgorithmEnumeration&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/hasLevelInHierarchy&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/IntegrityCheckAlgorithmEnumeration&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isMemberOf&gt;</t>
         </is>
       </c>
     </row>
@@ -6300,12 +6300,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/CompressionAlgorithmEnumeration</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/NullFlavor-QS</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/isMemberOf</t>
+          <t>https://www.omg.org/spec/Commons/Designators/denotes</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -6315,7 +6315,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/CompressionAlgorithmEnumeration&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isMemberOf&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/NullFlavor-QS&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Designators/denotes&gt;</t>
         </is>
       </c>
     </row>
@@ -6327,12 +6327,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/IntegrityCheckAlgorithmEnumeration</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/NullFlavorEnumeration</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Designators/denotes</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/hasLevelInHierarchy</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -6342,7 +6342,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/IntegrityCheckAlgorithmEnumeration&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Designators/denotes&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/NullFlavorEnumeration&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/hasLevelInHierarchy&gt;</t>
         </is>
       </c>
     </row>
@@ -6354,12 +6354,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/IntegrityCheckAlgorithmEnumeration</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/NullFlavorEnumeration</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/hasLevelInHierarchy</t>
+          <t>https://www.omg.org/spec/Commons/Collections/isMemberOf</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -6369,7 +6369,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/IntegrityCheckAlgorithmEnumeration&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/hasLevelInHierarchy&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/NullFlavorEnumeration&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isMemberOf&gt;</t>
         </is>
       </c>
     </row>
@@ -6381,12 +6381,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/IntegrityCheckAlgorithmEnumeration</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/UpdateMode-R</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/isMemberOf</t>
+          <t>https://www.omg.org/spec/Commons/Designators/denotes</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -6396,7 +6396,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/IntegrityCheckAlgorithmEnumeration&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isMemberOf&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/UpdateMode-R&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Designators/denotes&gt;</t>
         </is>
       </c>
     </row>
@@ -6408,12 +6408,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/NullFlavor-PINF</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/UpdateModeEnumeration</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Designators/denotes</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/hasLevelInHierarchy</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -6423,7 +6423,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/NullFlavor-PINF&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Designators/denotes&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/UpdateModeEnumeration&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/hasLevelInHierarchy&gt;</t>
         </is>
       </c>
     </row>
@@ -6435,12 +6435,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/NullFlavorEnumeration</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/UpdateModeEnumeration</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/hasLevelInHierarchy</t>
+          <t>https://www.omg.org/spec/Commons/Collections/isMemberOf</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -6450,7 +6450,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/NullFlavorEnumeration&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/hasLevelInHierarchy&gt;</t>
+          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/UpdateModeEnumeration&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isMemberOf&gt;</t>
         </is>
       </c>
     </row>
@@ -6462,12 +6462,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/NullFlavorEnumeration</t>
+          <t>https://www.clinicaltrialsregister.eu/ctr-search/trial/2010-022372-31/DE</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/isMemberOf</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/hasSponsor</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/NullFlavorEnumeration&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isMemberOf&gt;</t>
+          <t>Less than 1 values on &lt;https://www.clinicaltrialsregister.eu/ctr-search/trial/2010-022372-31/DE&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/hasSponsor&gt;</t>
         </is>
       </c>
     </row>
@@ -6489,12 +6489,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/UpdateModeEnumeration</t>
+          <t>https://www.clinicaltrialsregister.eu/ctr-search/trial/2010-022372-31/DE</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Designators/denotes</t>
+          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/evaluates</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/UpdateModeEnumeration&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Designators/denotes&gt;</t>
+          <t>Less than 1 values on &lt;https://www.clinicaltrialsregister.eu/ctr-search/trial/2010-022372-31/DE&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/evaluates&gt;</t>
         </is>
       </c>
     </row>
@@ -6516,12 +6516,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/UpdateModeEnumeration</t>
+          <t>https://www.ebi.ac.uk/chebi/chebiOntology.do?chebiId=CHEBI:2668</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/hasLevelInHierarchy</t>
+          <t>https://www.omg.org/spec/Commons/Collections/isMemberOf</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -6531,7 +6531,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/UpdateModeEnumeration&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/hasLevelInHierarchy&gt;</t>
+          <t>Less than 1 values on &lt;https://www.ebi.ac.uk/chebi/chebiOntology.do?chebiId=CHEBI:2668&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isMemberOf&gt;</t>
         </is>
       </c>
     </row>
@@ -6543,22 +6543,22 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/UpdateModeEnumeration</t>
+          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/InternationalSystemOfQuantities</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/isMemberOf</t>
+          <t>https://www.omg.org/spec/Commons/Designators/defines</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO21090-HarmonizedDatatypes/UpdateModeEnumeration&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isMemberOf&gt;</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/QuantityKind&gt;</t>
         </is>
       </c>
     </row>
@@ -6570,12 +6570,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>https://www.clinicaltrialsregister.eu/ctr-search/trial/2010-022372-31/DE</t>
+          <t>https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/L002</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/evaluates</t>
+          <t>https://www.omg.org/spec/Commons/Collections/isMemberOf</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -6585,7 +6585,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://www.clinicaltrialsregister.eu/ctr-search/trial/2010-022372-31/DE&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/evaluates&gt;</t>
+          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/L002&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isMemberOf&gt;</t>
         </is>
       </c>
     </row>
@@ -6597,22 +6597,22 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>https://www.clinicaltrialsregister.eu/ctr-search/trial/2010-022372-31/DE</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-1-LanguageCodes/bh</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/hasSponsor</t>
+          <t>https://www.omg.org/spec/Commons/Identifiers/identifies</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://www.clinicaltrialsregister.eu/ctr-search/trial/2010-022372-31/DE&gt;-&gt;&lt;https://spec.pistoiaalliance.org/idmp/ontology/ISO/ISO11615-MedicinalProducts/hasSponsor&gt;</t>
+          <t>Value does not have class &lt;https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/Language&gt;</t>
         </is>
       </c>
     </row>
@@ -6624,12 +6624,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>https://www.ebi.ac.uk/chebi/chebiOntology.do?chebiId=CHEBI:2668</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-1-LanguageCodes/ng</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/isMemberOf</t>
+          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasTag</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://www.ebi.ac.uk/chebi/chebiOntology.do?chebiId=CHEBI:2668&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isMemberOf&gt;</t>
+          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-1-LanguageCodes/ng&gt;-&gt;&lt;https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasTag&gt;</t>
         </is>
       </c>
     </row>
@@ -6651,12 +6651,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/QuantitiesAndUnits/InternationalSystemOfQuantities</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Afrihili</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Designators/defines</t>
+          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasEnglishName</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -6666,7 +6666,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Value does not have class &lt;https://www.omg.org/spec/Commons/QuantitiesAndUnits/QuantityKind&gt;</t>
+          <t>Value does not have class rdfs:Literal</t>
         </is>
       </c>
     </row>
@@ -6678,22 +6678,22 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/L002</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Afrihili</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Collections/isMemberOf</t>
+          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasFrenchName</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Countries/ISO3166-1-CountryCodes/L002&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Collections/isMemberOf&gt;</t>
+          <t>Value does not have class rdfs:Literal</t>
         </is>
       </c>
     </row>
@@ -6705,12 +6705,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/ISO639-1-LanguageCodes/Sanskrit</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Gbaya</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasFrenchName</t>
+          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasEnglishName</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -6732,12 +6732,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/ISO639-1-LanguageCodes/Sanskrit</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Gbaya</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasEnglishName</t>
+          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasFrenchName</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -6759,22 +6759,22 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/ISO639-1-LanguageCodes/ng</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Geez</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasTag</t>
+          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasEnglishName</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-1-LanguageCodes/ng&gt;-&gt;&lt;https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasTag&gt;</t>
+          <t>Value does not have class rdfs:Literal</t>
         </is>
       </c>
     </row>
@@ -6786,22 +6786,22 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/ISO639-1-LanguageCodes/tw</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Geez</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/Commons/Identifiers/identifies</t>
+          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasFrenchName</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/shacl#MinCountConstraintComponent</t>
+          <t>http://www.w3.org/ns/shacl#ClassConstraintComponent</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Less than 1 values on &lt;https://www.omg.org/spec/LCC/Languages/ISO639-1-LanguageCodes/tw&gt;-&gt;&lt;https://www.omg.org/spec/Commons/Identifiers/identifies&gt;</t>
+          <t>Value does not have class rdfs:Literal</t>
         </is>
       </c>
     </row>
@@ -6813,12 +6813,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Bliss</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/MiddleHighGerman</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasFrenchName</t>
+          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasEnglishName</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -6840,12 +6840,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Bliss</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/MiddleHighGerman</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasEnglishName</t>
+          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasFrenchName</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -6867,12 +6867,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/NoLinguisticContent</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Tokelau</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasFrenchName</t>
+          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasEnglishName</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -6894,12 +6894,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/NoLinguisticContent</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Tokelau</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasEnglishName</t>
+          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasFrenchName</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -6921,12 +6921,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/OldIrish</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Undetermined</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasFrenchName</t>
+          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasEnglishName</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -6948,12 +6948,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/OldIrish</t>
+          <t>https://www.omg.org/spec/LCC/Languages/ISO639-2-LanguageCodes/Undetermined</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasEnglishName</t>
+          <t>https://www.omg.org/spec/LCC/Languages/LanguageRepresentation/hasFrenchName</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
